--- a/tổng hợp_cv_đợt 2.1.xlsx
+++ b/tổng hợp_cv_đợt 2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="2445" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="33060" yWindow="2445" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$T$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$Y$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="308">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -845,9 +845,6 @@
     <t>a. Tâm, a. Nam, a. Ngọc</t>
   </si>
   <si>
-    <t>xin lùi</t>
-  </si>
-  <si>
     <t>Xác nhận pv 2</t>
   </si>
   <si>
@@ -921,6 +918,42 @@
   </si>
   <si>
     <t xml:space="preserve">0988.805.532 </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>đàm phán 8.5</t>
+  </si>
+  <si>
+    <t>vòng 2</t>
+  </si>
+  <si>
+    <t>vòng 2- 8 tr</t>
+  </si>
+  <si>
+    <t>STT 1  70</t>
+  </si>
+  <si>
+    <t>STT 2 15</t>
+  </si>
+  <si>
+    <t>STT 3 15</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Tổng điểm</t>
+  </si>
+  <si>
+    <t>Trúng tuyển</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,6 +1583,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3558,1933 +3612,2371 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:N37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="2" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="8" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="20" width="29" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="33.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="29" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="L1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="M1" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="O1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="P1" s="55" t="s">
+      <c r="S1" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="U1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="92" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="92" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="108">
+        <f>C2+D2+E2</f>
+        <v>70</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="I2" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="J2" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="K2" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="92" t="s">
+      <c r="L2" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="92" t="s">
+      <c r="O2" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="92">
+      <c r="Q2" s="92">
         <v>1979</v>
       </c>
-      <c r="M2" s="61">
+      <c r="R2" s="61">
         <v>904307168</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="93" t="s">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="V2" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="92" t="s">
+      <c r="W2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="92" t="s">
+      <c r="X2" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="94"/>
-    </row>
-    <row r="3" spans="1:21" s="92" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="94"/>
+    </row>
+    <row r="3" spans="1:26" s="92" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="108">
+        <v>20</v>
+      </c>
+      <c r="D3" s="108">
+        <v>10</v>
+      </c>
+      <c r="E3" s="108">
+        <v>10</v>
+      </c>
+      <c r="F3" s="108">
+        <f t="shared" ref="F3:F8" si="0">C3+D3+E3</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="I3" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="J3" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="K3" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="92" t="s">
+      <c r="L3" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" s="92" t="s">
+      <c r="O3" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="L3" s="92">
+      <c r="Q3" s="92">
         <v>1980</v>
       </c>
-      <c r="M3" s="61">
+      <c r="R3" s="61">
         <v>912808420</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="93" t="s">
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="V3" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="92" t="s">
+      <c r="W3" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="X3" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="U3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="94"/>
+    </row>
+    <row r="4" spans="1:26" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="107">
+        <v>0</v>
+      </c>
+      <c r="C4" s="109">
+        <v>25</v>
+      </c>
+      <c r="D4" s="109">
+        <v>5</v>
+      </c>
+      <c r="E4" s="109">
+        <v>10</v>
+      </c>
+      <c r="F4" s="108">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="I4" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="J4" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="86">
+      <c r="L4" s="95">
+        <v>1</v>
+      </c>
+      <c r="M4" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="86">
         <v>0.5625</v>
       </c>
-      <c r="J4" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" s="44">
+      <c r="O4" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="44">
         <v>4</v>
       </c>
-      <c r="L4" s="44">
+      <c r="Q4" s="44">
         <v>1987</v>
       </c>
-      <c r="M4" s="44">
+      <c r="R4" s="44">
         <v>985138622</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="U4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="V4" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="W4" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="X4" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="Y4" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="92" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="92" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
         <v>233</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="108">
+        <v>35</v>
+      </c>
+      <c r="D5" s="108">
+        <v>5</v>
+      </c>
+      <c r="E5" s="108">
+        <v>5</v>
+      </c>
+      <c r="F5" s="108">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="I5" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="J5" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="K5" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="92" t="s">
+      <c r="L5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="92" t="s">
+      <c r="O5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="L5" s="92">
+      <c r="Q5" s="92">
         <v>1988</v>
       </c>
-      <c r="M5" s="38">
+      <c r="R5" s="38">
         <v>946622333</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="92" t="s">
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="92" t="s">
+      <c r="V5" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="R5" s="92" t="s">
+      <c r="W5" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="S5" s="92" t="s">
+      <c r="X5" s="92" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="110">
+        <v>20</v>
+      </c>
+      <c r="D6" s="110">
+        <v>10</v>
+      </c>
+      <c r="E6" s="110">
+        <v>5</v>
+      </c>
+      <c r="F6" s="108">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J6" s="38"/>
       <c r="K6" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L6" s="42">
+      <c r="Q6" s="42">
         <v>1982</v>
       </c>
-      <c r="M6" s="63">
+      <c r="R6" s="63">
         <v>972803596</v>
       </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="P6" s="38" t="s">
+      <c r="S6" s="63"/>
+      <c r="T6" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="U6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="V6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="W6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="X6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="Y6" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="43" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="110">
+        <v>20</v>
+      </c>
+      <c r="D7" s="110">
+        <v>5</v>
+      </c>
+      <c r="E7" s="110">
+        <v>5</v>
+      </c>
+      <c r="F7" s="108">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="I7" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J7" s="38"/>
       <c r="K7" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="44">
+      <c r="Q7" s="44">
         <v>1984</v>
       </c>
-      <c r="M7" s="64">
+      <c r="R7" s="64">
         <v>978827374</v>
       </c>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="P7" s="87" t="s">
+      <c r="S7" s="97"/>
+      <c r="T7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="U7" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="V7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="W7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="X7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:21" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="38"/>
+    </row>
+    <row r="8" spans="1:26" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="110">
+        <v>50</v>
+      </c>
+      <c r="D8" s="110">
+        <v>10</v>
+      </c>
+      <c r="E8" s="110">
+        <v>5</v>
+      </c>
+      <c r="F8" s="108">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J8" s="38"/>
       <c r="K8" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L8" s="42">
+      <c r="Q8" s="42">
         <v>1994</v>
       </c>
-      <c r="M8" s="63">
+      <c r="R8" s="63">
         <v>384279440</v>
       </c>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="P8" s="88" t="s">
+      <c r="S8" s="98"/>
+      <c r="T8" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="U8" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="V8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="W8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="X8" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="Y8" s="42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="I9" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="38" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="75">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="75">
         <v>1989</v>
       </c>
-      <c r="M9" s="13">
+      <c r="R9" s="13">
         <v>981464678</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="37" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="75" t="s">
+      <c r="V9" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="W9" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="X9" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="T9" s="75" t="s">
+      <c r="Y9" s="75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="110">
+        <v>23</v>
+      </c>
+      <c r="D10" s="110">
+        <v>10</v>
+      </c>
+      <c r="E10" s="110">
+        <v>8</v>
+      </c>
+      <c r="F10" s="108">
+        <f t="shared" ref="F10:F11" si="1">C10+D10+E10</f>
+        <v>41</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="I10" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J10" s="38"/>
       <c r="K10" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="42">
+      <c r="Q10" s="42">
         <v>1989</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="R10" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="P10" s="56" t="s">
+      <c r="S10" s="98"/>
+      <c r="T10" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="U10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="V10" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="W10" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="X10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="1:21" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="38"/>
+    </row>
+    <row r="11" spans="1:26" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="110">
+        <v>33</v>
+      </c>
+      <c r="D11" s="110">
+        <v>7</v>
+      </c>
+      <c r="E11" s="110">
+        <v>8</v>
+      </c>
+      <c r="F11" s="108">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="I11" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J11" s="38"/>
       <c r="K11" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="45">
+      <c r="Q11" s="45">
         <v>1988</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="R11" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="56" t="s">
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="V11" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="W11" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="X11" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="T11" s="38"/>
-    </row>
-    <row r="12" spans="1:21" s="43" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="38"/>
+    </row>
+    <row r="12" spans="1:26" s="43" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="J12" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="K12" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K12" s="38" t="s">
+      <c r="L12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="L12" s="42">
+      <c r="Q12" s="42">
         <v>1995</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="42" t="s">
+      <c r="R12" s="63"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="W12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="X12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="Y12" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="44" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="44" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>245</v>
       </c>
       <c r="B13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" s="95"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="95">
         <v>1</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="95">
-        <v>1</v>
-      </c>
-      <c r="K13" s="44">
+      <c r="P13" s="44">
         <v>4</v>
       </c>
-      <c r="L13" s="44">
+      <c r="Q13" s="44">
         <v>1984</v>
       </c>
-      <c r="M13" s="44">
+      <c r="R13" s="44">
         <v>989994432</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="U13" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="44" t="s">
+      <c r="V13" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="R13" s="44" t="s">
+      <c r="W13" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="X13" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="T13" s="44" t="s">
+      <c r="Y13" s="44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="I14" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="38" t="s">
+      <c r="J14" s="72"/>
+      <c r="K14" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="76">
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="76">
         <v>1997</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="R14" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37" t="s">
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="77" t="s">
+      <c r="V14" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="R14" s="71" t="s">
+      <c r="W14" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="S14" s="71" t="s">
+      <c r="X14" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="T14" s="71"/>
-    </row>
-    <row r="15" spans="1:21" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="71"/>
+    </row>
+    <row r="15" spans="1:26" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="I15" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="13">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="13">
         <v>1986</v>
       </c>
-      <c r="M15" s="13">
+      <c r="R15" s="13">
         <v>933921186</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="37" t="s">
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="V15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="W15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="X15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="37"/>
-    </row>
-    <row r="16" spans="1:21" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="37"/>
+    </row>
+    <row r="16" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="I16" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="41" t="s">
+      <c r="J16" s="68"/>
+      <c r="K16" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="69">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="69">
         <v>1986</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="R16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="13" t="s">
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="67" t="s">
+      <c r="V16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="67" t="s">
+      <c r="W16" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="67" t="s">
+      <c r="X16" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="T16" s="67"/>
-    </row>
-    <row r="17" spans="1:20" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="67"/>
+    </row>
+    <row r="17" spans="1:25" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="I17" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="J17" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="K17" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="41" t="s">
+      <c r="L17" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L17" s="46">
+      <c r="Q17" s="46">
         <v>1990</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="R17" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="89" t="s">
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="V17" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="W17" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-    </row>
-    <row r="18" spans="1:20" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+    </row>
+    <row r="18" spans="1:25" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="110">
+        <v>23</v>
+      </c>
+      <c r="D18" s="110">
+        <v>7</v>
+      </c>
+      <c r="E18" s="110">
+        <v>7</v>
+      </c>
+      <c r="F18" s="108">
+        <f t="shared" ref="F18:F19" si="2">C18+D18+E18</f>
+        <v>37</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="I18" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="J18" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="K18" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I18" s="82">
+      <c r="L18" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N18" s="82">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J18" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K18" s="41" t="s">
+      <c r="O18" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P18" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L18" s="48">
+      <c r="Q18" s="48">
         <v>1991</v>
       </c>
-      <c r="M18" s="63">
+      <c r="R18" s="63">
         <v>363423806</v>
       </c>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="89" t="s">
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="V18" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="W18" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="S18" s="48" t="s">
+      <c r="X18" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="T18" s="48" t="s">
+      <c r="Y18" s="48" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="110">
+        <v>32</v>
+      </c>
+      <c r="D19" s="110">
+        <v>5</v>
+      </c>
+      <c r="E19" s="110">
+        <v>5</v>
+      </c>
+      <c r="F19" s="108">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="I19" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="J19" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="K19" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="41" t="s">
+      <c r="L19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L19" s="48">
+      <c r="Q19" s="48">
         <v>1994</v>
       </c>
-      <c r="M19" s="63">
+      <c r="R19" s="63">
         <v>989920950</v>
       </c>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="89" t="s">
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="49" t="s">
+      <c r="V19" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="W19" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="S19" s="48" t="s">
+      <c r="X19" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="Y19" s="41" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="I20" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="41" t="s">
+      <c r="J20" s="78"/>
+      <c r="K20" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="76">
+      <c r="L20" s="37"/>
+      <c r="M20" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="N20" s="78"/>
+      <c r="O20" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="76">
         <v>1996</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="R20" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37" t="s">
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="71" t="s">
+      <c r="V20" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="R20" s="71" t="s">
+      <c r="W20" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="S20" s="71" t="s">
+      <c r="X20" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="T20" s="71"/>
-    </row>
-    <row r="21" spans="1:20" s="80" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="71"/>
+    </row>
+    <row r="21" spans="1:25" s="80" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="80" t="s">
+      <c r="B21" s="107">
+        <v>0</v>
+      </c>
+      <c r="C21" s="109">
+        <v>25</v>
+      </c>
+      <c r="D21" s="109">
+        <v>5</v>
+      </c>
+      <c r="E21" s="109">
+        <v>6</v>
+      </c>
+      <c r="F21" s="108">
+        <f t="shared" ref="F21:F25" si="3">C21+D21+E21</f>
+        <v>36</v>
+      </c>
+      <c r="G21" s="95"/>
+      <c r="H21" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="I21" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="K21" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" s="80">
+      <c r="L21" s="95"/>
+      <c r="M21" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="P21" s="80">
         <v>5</v>
       </c>
-      <c r="L21" s="80">
+      <c r="Q21" s="80">
         <v>1992</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="R21" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="80" t="s">
+      <c r="U21" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="80" t="s">
+      <c r="V21" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="80" t="s">
+      <c r="W21" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="80" t="s">
+      <c r="X21" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="T21" s="80" t="s">
+      <c r="Y21" s="80" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="80" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="80" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="80" t="s">
+      <c r="B22" s="107">
+        <v>0</v>
+      </c>
+      <c r="C22" s="109">
+        <v>28</v>
+      </c>
+      <c r="D22" s="109">
+        <v>6</v>
+      </c>
+      <c r="E22" s="109">
+        <v>6</v>
+      </c>
+      <c r="F22" s="108">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="K22" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="80">
+      <c r="L22" s="80">
         <v>1</v>
       </c>
-      <c r="H22" s="80">
+      <c r="M22" s="80">
         <v>1</v>
       </c>
-      <c r="I22" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="J22" s="80">
+      <c r="N22" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="O22" s="80">
         <v>912640699</v>
       </c>
-      <c r="K22" s="80">
+      <c r="P22" s="80">
         <v>5</v>
       </c>
-      <c r="L22" s="80">
+      <c r="Q22" s="80">
         <v>1984</v>
       </c>
-      <c r="M22" s="6">
+      <c r="R22" s="6">
         <v>912640699</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="P22" s="80" t="s">
+      <c r="S22" s="6"/>
+      <c r="T22" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="U22" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="80" t="s">
+      <c r="V22" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="80" t="s">
+      <c r="W22" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S22" s="80" t="s">
+      <c r="X22" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="110">
+        <v>32</v>
+      </c>
+      <c r="D23" s="110">
+        <v>4</v>
+      </c>
+      <c r="E23" s="110">
+        <v>8</v>
+      </c>
+      <c r="F23" s="108">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="I23" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" s="41" t="s">
+      <c r="L23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L23" s="46">
+      <c r="Q23" s="46">
         <v>1977</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="R23" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="89" t="s">
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="41" t="s">
+      <c r="V23" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="R23" s="41" t="s">
+      <c r="W23" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="S23" s="41" t="s">
+      <c r="X23" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="41"/>
-    </row>
-    <row r="24" spans="1:20" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="41"/>
+    </row>
+    <row r="24" spans="1:25" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="110">
+        <v>35</v>
+      </c>
+      <c r="D24" s="110">
+        <v>8</v>
+      </c>
+      <c r="E24" s="110">
+        <v>7</v>
+      </c>
+      <c r="F24" s="108">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="I24" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41" t="s">
+      <c r="J24" s="41"/>
+      <c r="K24" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K24" s="41" t="s">
+      <c r="L24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O24" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L24" s="46">
+      <c r="Q24" s="46">
         <v>1988</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="R24" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="89" t="s">
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="Q24" s="41" t="s">
+      <c r="V24" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="W24" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="S24" s="41" t="s">
+      <c r="X24" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="41"/>
-    </row>
-    <row r="25" spans="1:20" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="41"/>
+    </row>
+    <row r="25" spans="1:25" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="110">
+        <v>36</v>
+      </c>
+      <c r="D25" s="110">
+        <v>5</v>
+      </c>
+      <c r="E25" s="110">
+        <v>5</v>
+      </c>
+      <c r="F25" s="108">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="I25" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="G25" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="J25" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K25" s="41" t="s">
+      <c r="L25" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="48">
+      <c r="Q25" s="48">
         <v>1992</v>
       </c>
-      <c r="M25" s="63">
+      <c r="R25" s="63">
         <v>986005213</v>
       </c>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="90" t="s">
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="48" t="s">
+      <c r="V25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="48" t="s">
+      <c r="W25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="48" t="s">
+      <c r="X25" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T25" s="50">
+      <c r="Y25" s="50">
         <v>6400000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="I26" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41" t="s">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="80">
+      <c r="L26" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P26" s="80">
         <v>5</v>
       </c>
-      <c r="L26" s="80">
+      <c r="Q26" s="80">
         <v>1994</v>
       </c>
-      <c r="M26" s="63"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="80" t="s">
+      <c r="R26" s="63"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="80" t="s">
+      <c r="W26" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="S26" s="80" t="s">
+      <c r="X26" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="80" t="s">
+      <c r="Y26" s="80" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="81" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="81" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>241</v>
       </c>
       <c r="B27" s="81">
+        <v>0</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="95"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="95">
         <v>1</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G27" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="95">
-        <v>1</v>
-      </c>
-      <c r="K27" s="34" t="s">
+      <c r="P27" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L27" s="81">
+      <c r="Q27" s="81">
         <v>1989</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="R27" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="P27" s="81" t="s">
+      <c r="U27" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="Q27" s="81" t="s">
+      <c r="V27" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="R27" s="81" t="s">
+      <c r="W27" s="81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>242</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="I28" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" s="34" t="s">
+      <c r="J28" s="34"/>
+      <c r="K28" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L28" s="51">
+      <c r="Q28" s="51">
         <v>1991</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="R28" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="55" t="s">
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="34" t="s">
+      <c r="V28" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="34" t="s">
+      <c r="W28" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="S28" s="34" t="s">
+      <c r="X28" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="T28" s="34"/>
-    </row>
-    <row r="29" spans="1:20" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y28" s="34"/>
+    </row>
+    <row r="29" spans="1:25" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="71" t="s">
+      <c r="B29" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="I29" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="76">
+      <c r="J29" s="79"/>
+      <c r="K29" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="76">
         <v>1992</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="R29" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37" t="s">
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="V29" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="W29" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="S29" s="71" t="s">
+      <c r="X29" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="T29" s="71"/>
-    </row>
-    <row r="30" spans="1:20" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="71"/>
+    </row>
+    <row r="30" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="I30" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" s="67"/>
-      <c r="L30" s="69">
+      <c r="J30" s="70"/>
+      <c r="K30" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="69">
         <v>1996</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="R30" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37" t="s">
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="67" t="s">
+      <c r="V30" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="R30" s="67" t="s">
+      <c r="W30" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="S30" s="67" t="s">
+      <c r="X30" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="T30" s="67"/>
-    </row>
-    <row r="31" spans="1:20" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="67"/>
+    </row>
+    <row r="31" spans="1:25" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="110">
+        <v>21</v>
+      </c>
+      <c r="D31" s="110">
+        <v>5</v>
+      </c>
+      <c r="E31" s="110">
+        <v>5</v>
+      </c>
+      <c r="F31" s="108">
+        <f t="shared" ref="F31:F32" si="4">C31+D31+E31</f>
+        <v>31</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="I31" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I31" s="96">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N31" s="96">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J31" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" s="34" t="s">
+      <c r="O31" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P31" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L31" s="51">
+      <c r="Q31" s="51">
         <v>1986</v>
       </c>
-      <c r="M31" s="65" t="s">
+      <c r="R31" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="55" t="s">
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="V31" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="R31" s="34" t="s">
+      <c r="W31" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="S31" s="34" t="s">
+      <c r="X31" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="T31" s="34"/>
-    </row>
-    <row r="32" spans="1:20" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="34"/>
+    </row>
+    <row r="32" spans="1:25" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="110">
+        <v>22</v>
+      </c>
+      <c r="D32" s="110">
+        <v>5</v>
+      </c>
+      <c r="E32" s="110">
+        <v>6</v>
+      </c>
+      <c r="F32" s="108">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="I32" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="J32" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J32" s="34"/>
       <c r="K32" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L32" s="51">
+      <c r="Q32" s="51">
         <v>1990</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="R32" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="55" t="s">
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="Q32" s="34" t="s">
+      <c r="V32" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="W32" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="X32" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="T32" s="34"/>
-    </row>
-    <row r="33" spans="1:20" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="34"/>
+    </row>
+    <row r="33" spans="1:25" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="I33" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="34" t="s">
+      <c r="L33" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" s="36"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P33" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L33" s="53">
+      <c r="Q33" s="53">
         <v>1994</v>
       </c>
-      <c r="M33" s="63">
+      <c r="R33" s="63">
         <v>978261569</v>
       </c>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="91" t="s">
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="Q33" s="53" t="s">
+      <c r="V33" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="R33" s="53" t="s">
+      <c r="W33" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="53" t="s">
+      <c r="X33" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="T33" s="53" t="s">
+      <c r="Y33" s="53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="110">
+        <v>20</v>
+      </c>
+      <c r="D34" s="110">
+        <v>5</v>
+      </c>
+      <c r="E34" s="110">
+        <v>5</v>
+      </c>
+      <c r="F34" s="108">
+        <f>C34+D34+E34</f>
+        <v>30</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="I34" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="J34" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J34" s="34"/>
       <c r="K34" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L34" s="53">
+      <c r="Q34" s="53">
         <v>1995</v>
       </c>
-      <c r="M34" s="63" t="s">
+      <c r="R34" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="91" t="s">
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="Q34" s="53" t="s">
+      <c r="V34" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="53" t="s">
+      <c r="W34" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="S34" s="53" t="s">
+      <c r="X34" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="34"/>
-    </row>
-    <row r="35" spans="1:20" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="34"/>
+    </row>
+    <row r="35" spans="1:25" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>118</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="I35" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34" t="s">
+      <c r="J35" s="34"/>
+      <c r="K35" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="G35" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35" s="34" t="s">
+      <c r="L35" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P35" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L35" s="53">
+      <c r="Q35" s="53">
         <v>1996</v>
       </c>
-      <c r="M35" s="63">
+      <c r="R35" s="63">
         <v>359497273</v>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="91" t="s">
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="Q35" s="53" t="s">
+      <c r="V35" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="R35" s="53" t="s">
+      <c r="W35" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="S35" s="54" t="s">
+      <c r="X35" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="T35" s="53" t="s">
+      <c r="Y35" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="110">
+        <v>50</v>
+      </c>
+      <c r="D36" s="110">
+        <v>10</v>
+      </c>
+      <c r="E36" s="110">
+        <v>5</v>
+      </c>
+      <c r="F36" s="108">
+        <f t="shared" ref="F36:F37" si="5">C36+D36+E36</f>
+        <v>65</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="I36" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="J36" s="62" t="s">
-        <v>231</v>
-      </c>
+      <c r="J36" s="34"/>
       <c r="K36" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="P36" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="53">
+      <c r="Q36" s="53">
         <v>1997</v>
       </c>
-      <c r="M36" s="63">
+      <c r="R36" s="63">
         <v>354435225</v>
       </c>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="91" t="s">
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" s="53" t="s">
+      <c r="V36" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="R36" s="53" t="s">
+      <c r="W36" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="S36" s="53" t="s">
+      <c r="X36" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="T36" s="53" t="s">
+      <c r="Y36" s="53" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="81" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="81" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="81" t="s">
+      <c r="B37" s="107">
+        <v>0</v>
+      </c>
+      <c r="C37" s="109">
+        <v>38</v>
+      </c>
+      <c r="D37" s="109">
+        <v>5</v>
+      </c>
+      <c r="E37" s="109">
+        <v>5</v>
+      </c>
+      <c r="F37" s="108">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="G37" s="95"/>
+      <c r="H37" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="I37" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="95">
+      <c r="K37" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" s="95">
         <v>1</v>
       </c>
-      <c r="I37" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="J37" s="95">
+      <c r="N37" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O37" s="95">
         <v>1</v>
       </c>
-      <c r="K37" s="81">
+      <c r="P37" s="81">
         <v>6</v>
       </c>
-      <c r="L37" s="81">
+      <c r="Q37" s="81">
         <v>1987</v>
       </c>
-      <c r="M37" s="81">
+      <c r="R37" s="81">
         <v>966986495</v>
       </c>
-      <c r="P37" s="81" t="s">
+      <c r="U37" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="Q37" s="81" t="s">
+      <c r="V37" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="R37" s="81" t="s">
+      <c r="W37" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="S37" s="81" t="s">
+      <c r="X37" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="T37" s="81" t="s">
+      <c r="Y37" s="81" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T36">
-    <filterColumn colId="7">
+  <autoFilter ref="A1:Y37">
+    <filterColumn colId="12">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:T37">
-      <sortCondition descending="1" ref="D1:D37"/>
+    <sortState ref="A2:Y37">
+      <sortCondition descending="1" ref="I1:I37"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
-    <hyperlink ref="Q14" r:id="rId2"/>
+    <hyperlink ref="V4" r:id="rId1"/>
+    <hyperlink ref="V14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5495,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +6017,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" s="100" t="s">
         <v>14</v>
@@ -5537,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,10 +6070,10 @@
         <v>228</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>253</v>
@@ -5605,10 +6097,10 @@
         <v>228</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>253</v>
@@ -5632,10 +6124,10 @@
         <v>228</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>253</v>
@@ -5659,10 +6151,10 @@
         <v>228</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>253</v>
@@ -5686,10 +6178,10 @@
         <v>228</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>253</v>
@@ -5743,7 +6235,7 @@
         <v>267</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>254</v>
@@ -5770,7 +6262,7 @@
         <v>269</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="95">
         <v>5</v>
@@ -5788,7 +6280,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="95" t="s">
         <v>230</v>
@@ -5797,7 +6289,7 @@
         <v>269</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="95">
         <v>5</v>
@@ -5824,7 +6316,7 @@
         <v>268</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>254</v>
@@ -5851,7 +6343,7 @@
         <v>268</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>254</v>
@@ -5878,7 +6370,7 @@
         <v>268</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>254</v>
@@ -5902,7 +6394,7 @@
         <v>229</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="101">
         <v>0.58333333333333337</v>
@@ -5929,10 +6421,10 @@
         <v>229</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>255</v>
@@ -5941,7 +6433,7 @@
         <v>1990</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -5956,10 +6448,10 @@
         <v>229</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>255</v>
@@ -5983,10 +6475,10 @@
         <v>229</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>255</v>
@@ -6010,10 +6502,10 @@
         <v>229</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F19" s="95">
         <v>6</v>
